--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -765,10 +765,10 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -953,10 +953,10 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.88</v>
@@ -965,46 +965,46 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1013,22 +1013,22 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1046,31 +1046,31 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1159,19 +1159,19 @@
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1189,19 +1189,19 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>10</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1210,19 +1210,19 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>251</v>
@@ -1237,22 +1237,22 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -944,7 +944,7 @@
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -977,7 +977,7 @@
         <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -762,7 +762,7 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,34 +777,34 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
         <v>351</v>
@@ -831,16 +831,16 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -864,13 +864,13 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>7.5</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -944,7 +944,7 @@
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -965,10 +965,10 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1046,10 +1046,10 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1135,28 +1135,28 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -1165,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
         <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,28 +1180,28 @@
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1210,43 +1210,43 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1341,7 +1341,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1371,16 +1371,16 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1428,10 +1428,10 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,94 +747,94 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
         <v>13</v>
       </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -843,52 +843,52 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>21</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -929,73 +929,73 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.57</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1010,61 +1010,61 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1111,136 +1111,136 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="n">
         <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1293,153 +1293,517 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.25</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
         <v>8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
         <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
       </c>
       <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
       </c>
       <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xdKSpQD6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bB8yq4rJ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1511,10 +1511,10 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="U6" t="n">
         <v>1.98</v>
@@ -1523,25 +1523,25 @@
         <v>1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD6" t="n">
         <v>5.4</v>
@@ -1556,40 +1556,40 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT6" t="n">
         <v>2.15</v>
@@ -1598,25 +1598,25 @@
         <v>7.3</v>
       </c>
       <c r="AV6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -750,10 +750,10 @@
         <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -828,13 +828,13 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -849,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -750,10 +750,10 @@
         <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -828,13 +828,13 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -849,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1505,16 +1505,16 @@
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
         <v>1.98</v>
@@ -1523,7 +1523,7 @@
         <v>1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
@@ -1532,7 +1532,7 @@
         <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>35</v>
@@ -1550,7 +1550,7 @@
         <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1565,28 +1565,28 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="n">
         <v>100</v>
       </c>
       <c r="AR6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS6" t="n">
         <v>450</v>
@@ -1598,25 +1598,25 @@
         <v>7.3</v>
       </c>
       <c r="AV6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -798,7 +798,7 @@
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -819,7 +819,7 @@
         <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -840,7 +840,7 @@
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
@@ -762,7 +762,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -798,7 +798,7 @@
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -819,7 +819,7 @@
         <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -834,13 +834,13 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
@@ -1693,10 +1693,10 @@
         <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -1708,13 +1708,13 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>9.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
         <v>23</v>
@@ -1726,40 +1726,40 @@
         <v>8.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE7" t="n">
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
         <v>35</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP7" t="n">
         <v>22</v>
@@ -1774,7 +1774,7 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
         <v>6.9</v>
@@ -1783,22 +1783,22 @@
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1693,10 +1693,10 @@
         <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -1705,22 +1705,22 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
         <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>8.25</v>
@@ -1738,64 +1738,64 @@
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AI7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK7" t="n">
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB7" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -756,7 +756,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -983,10 +983,10 @@
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -932,10 +932,10 @@
         <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -983,10 +983,10 @@
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1329,10 +1329,10 @@
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1377,13 +1377,13 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
@@ -1401,16 +1401,16 @@
         <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -750,7 +750,7 @@
         <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
         <v>6.5</v>
@@ -765,22 +765,22 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -828,7 +828,7 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -849,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -935,7 +935,7 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1499,37 +1499,37 @@
         <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z6" t="n">
         <v>40</v>
@@ -1538,34 +1538,34 @@
         <v>35</v>
       </c>
       <c r="AB6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1574,43 +1574,43 @@
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR6" t="n">
         <v>150</v>
       </c>
       <c r="AS6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AV6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY6" t="n">
         <v>25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -876,7 +876,7 @@
         <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
@@ -1329,10 +1329,10 @@
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1341,10 +1341,10 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1377,13 +1377,13 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
@@ -1401,16 +1401,16 @@
         <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.5</v>
@@ -1395,7 +1395,7 @@
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -750,16 +750,16 @@
         <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -771,34 +771,34 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -810,10 +810,10 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -852,10 +852,10 @@
         <v>7.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -876,13 +876,13 @@
         <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1475,37 +1475,37 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R6" t="n">
         <v>1.42</v>
@@ -1514,34 +1514,34 @@
         <v>1.52</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
         <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="n">
         <v>40</v>
       </c>
-      <c r="AA6" t="n">
-        <v>35</v>
-      </c>
       <c r="AB6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD6" t="n">
         <v>5.8</v>
@@ -1556,64 +1556,64 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ6" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AR6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS6" t="n">
         <v>500</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV6" t="n">
         <v>90</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AX6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BA6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB6" t="n">
         <v>400</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1705,22 +1705,22 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
         <v>8.25</v>
@@ -1732,16 +1732,16 @@
         <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.25</v>
@@ -1750,10 +1750,10 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="n">
         <v>4.35</v>
@@ -1762,22 +1762,22 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
@@ -1786,19 +1786,19 @@
         <v>4.65</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>2.75</v>
@@ -977,16 +977,16 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1019,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1058,7 +1058,7 @@
         <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1067,7 +1067,7 @@
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -783,16 +783,16 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -852,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>2.75</v>
@@ -953,16 +953,16 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -977,16 +977,16 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>5.5</v>
@@ -1019,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1058,16 +1058,16 @@
         <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nHSRDzXf</t>
+          <t>Q7RVCfn1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,31 +738,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -795,76 +795,76 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH2" t="n">
         <v>5.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AI2" t="n">
         <v>8</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AJ2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AK2" t="n">
         <v>17</v>
       </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>81</v>
       </c>
-      <c r="AG2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -873,209 +873,27 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Q7RVCfn1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Botafogo SP</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ceara</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD3" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q7RVCfn1</t>
+          <t>MZKvBYGD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,154 +738,154 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="U2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
         <v>51</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
         <v>41</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>151</v>
-      </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -895,6 +895,916 @@
       </c>
       <c r="BD2" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nHSRDzXf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Amazonas</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q7RVCfn1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fk8zOlJM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xdKSpQD6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dep. Tachira</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bB8yq4rJ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
